--- a/other/xinhu/youtubeVideos.xlsx
+++ b/other/xinhu/youtubeVideos.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8678F3D7-539D-40B5-A3B0-0A9007F4769F}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10529F29-A244-484A-9C6F-F9876FDD5860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="168" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
   <si>
     <t>title</t>
   </si>
@@ -380,6 +380,147 @@
   </si>
   <si>
     <t>體育表演會預告2</t>
+  </si>
+  <si>
+    <t>f6bufZPfkP4</t>
+  </si>
+  <si>
+    <t>107新湖國小【大手牽小手‧故事親親說】活動影片</t>
+  </si>
+  <si>
+    <t>YwcR7Xfh9yQ</t>
+  </si>
+  <si>
+    <t>ka4-wlXAYQE</t>
+  </si>
+  <si>
+    <t>臺北市新湖國小103學年度下學期活動花絮-2</t>
+  </si>
+  <si>
+    <t>Jr7blvFk7Qo</t>
+  </si>
+  <si>
+    <t>臺北市新湖國小103學年度下學期活動花絮-1</t>
+  </si>
+  <si>
+    <t>_rvKwPwfzx8</t>
+  </si>
+  <si>
+    <t>臺北市新湖國小1040831新生入學</t>
+  </si>
+  <si>
+    <t>_i4ysBqcDlQ</t>
+  </si>
+  <si>
+    <t>新湖國小104年度讀者劇場預演</t>
+  </si>
+  <si>
+    <t>FSUvUJKyFSc</t>
+  </si>
+  <si>
+    <t>1040922新湖國小慶祝教師節</t>
+  </si>
+  <si>
+    <t>eV_uVqSOfEA</t>
+  </si>
+  <si>
+    <t>1040922新湖國小慶祝教師節1</t>
+  </si>
+  <si>
+    <t>ewTjZRu8uiM</t>
+  </si>
+  <si>
+    <t>幼兒園中秋節活動</t>
+  </si>
+  <si>
+    <t>20151021台北市新湖國小音樂比賽</t>
+  </si>
+  <si>
+    <t>20151021台北市新湖國小音樂比賽 合唱</t>
+  </si>
+  <si>
+    <t>r604vo3hpok</t>
+  </si>
+  <si>
+    <t>20151021台北市新湖國小音樂比賽 管樂</t>
+  </si>
+  <si>
+    <t>MKvgTMHNoE8</t>
+  </si>
+  <si>
+    <t>gIJqg5UCktk</t>
+  </si>
+  <si>
+    <t>新湖國小小王子主題書展</t>
+  </si>
+  <si>
+    <t>kJRWlVNjfC8</t>
+  </si>
+  <si>
+    <t>臺北市新湖國小2015金氏世界紀錄疊杯宣傳影片</t>
+  </si>
+  <si>
+    <t>D3iu2cqQRFU</t>
+  </si>
+  <si>
+    <t>2015金氏世界紀錄在新湖STACK UP!!!WE DID IT!!!</t>
+  </si>
+  <si>
+    <t>foYGF-bIU8k</t>
+  </si>
+  <si>
+    <t>台北市新湖國小2015金氏世界紀錄疊杯</t>
+  </si>
+  <si>
+    <t>zdDIoFOfz7w</t>
+  </si>
+  <si>
+    <t>新湖國小104年度體育表演會</t>
+  </si>
+  <si>
+    <t>lh7AlTSz-Xk</t>
+  </si>
+  <si>
+    <t>新湖國小104年度聖誕音樂會</t>
+  </si>
+  <si>
+    <t>inK9qLtnyJE</t>
+  </si>
+  <si>
+    <t>1041224臺北市新湖國小聖誕活動</t>
+  </si>
+  <si>
+    <t>104學年度第一學期班級模範生</t>
+  </si>
+  <si>
+    <t>DCxSwZ1MoEw</t>
+  </si>
+  <si>
+    <t>E_kdsZJyH2w</t>
+  </si>
+  <si>
+    <t>105新湖美華阿姨退休</t>
+  </si>
+  <si>
+    <t>6uTQf0fXnNM</t>
+  </si>
+  <si>
+    <t>寒假自主學習</t>
+  </si>
+  <si>
+    <t>nOCr5xCh790</t>
+  </si>
+  <si>
+    <t>1050203 新湖國小104上學期精彩照片 2</t>
+  </si>
+  <si>
+    <t>BOii0nNBkls</t>
+  </si>
+  <si>
+    <t>新湖國小104學年度開學日活動</t>
+  </si>
+  <si>
+    <t>zwD7ALPzfFY</t>
   </si>
 </sst>
 </file>
@@ -459,8 +600,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F55" totalsRowShown="0" headerRowDxfId="6">
-  <autoFilter ref="A1:F55" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{B68AFC7B-6266-4D14-8E60-C11E06AA594C}" name="Table1" displayName="Table1" ref="A1:F82" totalsRowShown="0" headerRowDxfId="6">
+  <autoFilter ref="A1:F82" xr:uid="{2166C70C-1411-4E16-A820-5D604ED0A907}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{E7C8E38C-0C4D-4B0E-B31D-F84273132EE5}" name="title" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{073D97DF-3E36-42E2-89AE-63240BDD5AAE}" name="ID" dataDxfId="4"/>
@@ -737,10 +878,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F55"/>
+  <dimension ref="A1:F79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="F55" sqref="F55"/>
+    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
+      <selection activeCell="B65" sqref="B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1852,6 +1993,486 @@
         <v>22</v>
       </c>
     </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A56" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B56" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C56" s="2">
+        <v>11</v>
+      </c>
+      <c r="D56" s="2">
+        <v>14</v>
+      </c>
+      <c r="E56" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F56" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A57" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="B57" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="C57" s="2">
+        <v>11</v>
+      </c>
+      <c r="D57" s="2">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F57" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A58" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B58" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="C58" s="2">
+        <v>9</v>
+      </c>
+      <c r="D58" s="2">
+        <v>8</v>
+      </c>
+      <c r="E58" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F58" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A59" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="B59" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="C59" s="2">
+        <v>9</v>
+      </c>
+      <c r="D59" s="2">
+        <v>9</v>
+      </c>
+      <c r="E59" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F59" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A60" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B60" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="C60" s="2">
+        <v>9</v>
+      </c>
+      <c r="D60" s="2">
+        <v>9</v>
+      </c>
+      <c r="E60" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F60" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A61" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B61" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C61" s="2">
+        <v>9</v>
+      </c>
+      <c r="D61" s="2">
+        <v>21</v>
+      </c>
+      <c r="E61" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A62" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B62" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C62" s="2">
+        <v>9</v>
+      </c>
+      <c r="D62" s="2">
+        <v>23</v>
+      </c>
+      <c r="E62" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F62" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A63" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B63" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C63" s="2">
+        <v>9</v>
+      </c>
+      <c r="D63" s="2">
+        <v>25</v>
+      </c>
+      <c r="E63" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F63" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A64" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B64" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="C64" s="2">
+        <v>9</v>
+      </c>
+      <c r="D64" s="2">
+        <v>30</v>
+      </c>
+      <c r="E64" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A65" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B65" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C65" s="2">
+        <v>10</v>
+      </c>
+      <c r="D65" s="2">
+        <v>21</v>
+      </c>
+      <c r="E65" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A66" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B66" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C66" s="2">
+        <v>10</v>
+      </c>
+      <c r="D66" s="2">
+        <v>26</v>
+      </c>
+      <c r="E66" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F66" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A67" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="B67" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C67" s="2">
+        <v>10</v>
+      </c>
+      <c r="D67" s="2">
+        <v>28</v>
+      </c>
+      <c r="E67" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A68" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C68" s="2">
+        <v>11</v>
+      </c>
+      <c r="D68" s="2">
+        <v>5</v>
+      </c>
+      <c r="E68" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A69" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C69" s="2">
+        <v>11</v>
+      </c>
+      <c r="D69" s="2">
+        <v>8</v>
+      </c>
+      <c r="E69" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F69" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A70" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C70" s="2">
+        <v>11</v>
+      </c>
+      <c r="D70" s="2">
+        <v>6</v>
+      </c>
+      <c r="E70" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="C71" s="2">
+        <v>11</v>
+      </c>
+      <c r="D71" s="2">
+        <v>16</v>
+      </c>
+      <c r="E71" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C72" s="2">
+        <v>12</v>
+      </c>
+      <c r="D72" s="2">
+        <v>1</v>
+      </c>
+      <c r="E72" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F72" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="C73" s="2">
+        <v>12</v>
+      </c>
+      <c r="D73" s="2">
+        <v>24</v>
+      </c>
+      <c r="E73" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A74" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="C74" s="2">
+        <v>12</v>
+      </c>
+      <c r="D74" s="2">
+        <v>30</v>
+      </c>
+      <c r="E74" s="2">
+        <v>2015</v>
+      </c>
+      <c r="F74" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C75" s="2">
+        <v>1</v>
+      </c>
+      <c r="D75" s="2">
+        <v>11</v>
+      </c>
+      <c r="E75" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F75" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C76" s="2">
+        <v>1</v>
+      </c>
+      <c r="D76" s="2">
+        <v>14</v>
+      </c>
+      <c r="E76" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C77" s="2">
+        <v>1</v>
+      </c>
+      <c r="D77" s="2">
+        <v>18</v>
+      </c>
+      <c r="E77" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F77" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C78" s="2">
+        <v>2</v>
+      </c>
+      <c r="D78" s="2">
+        <v>4</v>
+      </c>
+      <c r="E78" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C79" s="2">
+        <v>2</v>
+      </c>
+      <c r="D79" s="2">
+        <v>14</v>
+      </c>
+      <c r="E79" s="2">
+        <v>2016</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/youtubeVideos.xlsx
+++ b/other/xinhu/youtubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10529F29-A244-484A-9C6F-F9876FDD5860}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322F1A7-6BBA-403A-B990-C10C78D355A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="240" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="169">
   <si>
     <t>title</t>
   </si>
@@ -521,6 +521,12 @@
   </si>
   <si>
     <t>zwD7ALPzfFY</t>
+  </si>
+  <si>
+    <t>V1yul9R1joQ</t>
+  </si>
+  <si>
+    <t>1071201新湖國小體表會</t>
   </si>
 </sst>
 </file>
@@ -878,10 +884,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:F79"/>
+  <dimension ref="A1:F80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A54" workbookViewId="0">
-      <selection activeCell="B65" sqref="B65"/>
+    <sheetView tabSelected="1" topLeftCell="A63" workbookViewId="0">
+      <selection sqref="A1:F82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2473,6 +2479,26 @@
         <v>19</v>
       </c>
     </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="C80" s="2">
+        <v>12</v>
+      </c>
+      <c r="D80" s="2">
+        <v>10</v>
+      </c>
+      <c r="E80" s="2">
+        <v>2018</v>
+      </c>
+      <c r="F80" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>

--- a/other/xinhu/youtubeVideos.xlsx
+++ b/other/xinhu/youtubeVideos.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F322F1A7-6BBA-403A-B990-C10C78D355A2}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{188723FF-7511-4B13-8561-A3A19B15CB03}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
